--- a/issue tracking.xlsx
+++ b/issue tracking.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-3-15-2" sheetId="2" r:id="rId2"/>
+    <sheet name="2018-3-16-1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018-3-15-1'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>序号</t>
   </si>
@@ -40,25 +42,34 @@
     <t>需要增加功能教师在第一次登陆系统的时候可以修改密码</t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>课程信息页面中，左边的导航栏法律硕士和法学硕士，同右边的课程信息列表做反了。</t>
+  </si>
+  <si>
+    <t>导入的课程信息不对，貌似存在新老两版。这个主要影响测试</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>课程信息页面中，左边的导航栏法律硕士和法学硕士，同右边的课程信息列表做反了。</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>导入的课程信息不对，貌似存在新老两版。这个主要影响测试</t>
+    <t>ignore</t>
   </si>
   <si>
     <t>怎么把注册过的教师课教师信息里的教师列表关联起来。</t>
   </si>
   <si>
+    <t>createID with Work ID. Try it.</t>
+  </si>
+  <si>
     <t>教师个人“申报该课程”对话框中，对话框显示名称是“编辑课程信息”，其中“年级”和“班级”信息显示不正确。此对话框中所有内容应该是不可更改。只能店“确认申报"或者"取消"按钮。但是这里我点”确认申报“按钮，显示成功，对话框却没有自动关闭。</t>
   </si>
   <si>
     <t>我用普通教师账号”1000“登陆，确认申报课程，显示成功，但是实际内容没有发生任何变化。到底可以申报吗？</t>
+  </si>
+  <si>
+    <t>会检查一下为什么普通教师1000申报之后，可选教师列表里出现的是教务员。</t>
   </si>
   <si>
     <t>课程信息页面中，编辑课程信息必须先选中一条记录</t>
@@ -71,7 +82,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>课程信息页面中，编辑课程信息时，如果更改课程代码，</t>
@@ -80,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>我们昨天商量怎么操作来着？？</t>
@@ -89,7 +100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>是不是直接提示错误信息并返回，禁止这个操作。更改课程代码的操作请通过添加课程并删除原记录完成。</t>
@@ -98,13 +109,16 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
       <t>我忘记了。</t>
     </r>
   </si>
   <si>
+    <t>如果更改课程代码，这条记录的班级从原来的课程代码里去掉，数据库新建一条课程代码记录，是这个班级上课。</t>
+  </si>
+  <si>
     <t>课程信息页面中，编辑课程信息时，如果更改除课程代码以外的其他课程信息，允许这个操作，并且同步更新所有其他同课程代码的记录。</t>
   </si>
   <si>
@@ -114,6 +128,9 @@
     <t>课程信息页面中，添加课程信息时，如果搜索的课程代码已经存在，load同课程代码的任意一条记录，并且只允许修改班级相关信息以达到增加一个新的班级上这堂课的目的，包括学位、年级、班级。如果修改其他信息，则报错并返回。</t>
   </si>
   <si>
+    <t>在这个情况中，其他不允许修改的信息窗会变灰。这样就没有出错状况了。</t>
+  </si>
+  <si>
     <t>课程信息页面中，添加课程信息时，如果搜索的课程代码之前不存在，允许编辑所有可编辑内容。</t>
   </si>
   <si>
@@ -129,10 +146,58 @@
     <t>教师个人申报课程的页面中，加一个申报完成的按钮。需要检查在本科和法律硕士中各要求选至少一个强制均衡难度的课程，如果没有，需要做简要说明并记录说明在数据库。这个在导出申报结果的时候要想办法导出给教务员老师。</t>
   </si>
   <si>
+    <t>暂定9、10是本科强制均衡，必选一门，8是法律硕士强制均衡，必选一门，申报完成会检查，会列出申报课程列表，会列出所缺的难度课程，如果缺，必须给出理由，不然不能确认成功。窗口给出提示，一旦申报成功，不能反悔。</t>
+  </si>
+  <si>
     <t>负责不同学位课程的教务员之前设置权限，比方说负责本科的教务员老师不可以更改硕士课程。</t>
   </si>
   <si>
-    <t>所有页面再未开启排课时, 提示信息错误</t>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的页面中，期望学时的默认值应该为100%</t>
+  </si>
+  <si>
+    <t>OK。</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的页面中，如果提交过左边的导航栏之后，右边的课程信息显示，最后一列课程状态会显示所有的可选教师列表。这里应该还是显示申报状态。</t>
+  </si>
+  <si>
+    <t>教师信息管理页面，教务员的管理页面中，统计信息的期望学时总数是和期望难度总数，改成”第一/二学期平均学时“和”第一/二学期平均难度“，显示值为，系数为100%的学时数值和难度数值。</t>
+  </si>
+  <si>
+    <t>教师信息管理页面，教务员的管理页面中，教师信息列表，第三/四列改名为”%期望学时1/2“，第五/六列改名为”期望学时1/2“，第七八列改名为”期望难度1/2“</t>
+  </si>
+  <si>
+    <t>改成“已分配学时/难度/1/2”</t>
+  </si>
+  <si>
+    <t>教师信息管理页面，教务员的管理页面中，编辑教师信息按钮不work</t>
+  </si>
+  <si>
+    <t>教师信息管理页面，教务员的管理页面中，删除教师按钮不work。如果来不及，可以先disable掉。这里的导入按钮也可以disable掉。</t>
+  </si>
+  <si>
+    <t>移到管理员帐号可见，教务员不可见。</t>
+  </si>
+  <si>
+    <t>课程信息管理页面，删除按钮工作有问题，当删除唯一的课程代码信息条时工作正常。当删除有几个班一起上同一个课程代码，其中的一条记录（即一个上课的班级记录）时，所有同一课程代码的记录全部都删掉了。应该只是删掉这一个班级。</t>
+  </si>
+  <si>
+    <t>教师申报课程的流程有问题。我建了一个普通教师账号1000，名字就叫普通教师，然后申报了一门国际法课程。之后换教务员账号登陆，看到国际法的可选教师列表增加了一个老师，但是名字叫“教务员”。而且如果普通教师1000多次申报同一门课程，这门课的可选教师列表会多次增加“教务员”这个名字；并且这些后增加的“教务员”名字在编辑课程信息的时候，在编辑对话窗的“可选教师”列表里不可见，不能删除。</t>
+  </si>
+  <si>
+    <t>教务员这个帐号本来就不是一个可用教师帐号。但是现在删除可选教师功能确实有问题。无法正常删除。</t>
+  </si>
+  <si>
+    <t>教师个人申报课程的页面中，没有选中任何课程也可以点申报课程按钮。此处可以改成必须选中才可以点。这样可以避免老师出现申报一门不存在的课程。</t>
+  </si>
+  <si>
+    <t>课程信息管理页面里面，编辑课程信息对话窗，可选教师列表如果比较长的话无法全部显示。</t>
+  </si>
+  <si>
+    <t>OK。正常。</t>
   </si>
 </sst>
 </file>
@@ -140,10 +205,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -151,6 +216,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,17 +241,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,86 +355,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,36 +370,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -321,13 +386,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,169 +494,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +580,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,19 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +652,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,148 +682,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,19 +1156,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="73.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="73.1666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.16666666666667" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="64.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1126,7 +1192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1136,15 +1202,15 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2">
         <v>43173</v>
       </c>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1155,7 +1221,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>43173</v>
@@ -1163,8 +1229,11 @@
       <c r="F3" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1172,16 +1241,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1189,16 +1261,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:5">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1206,16 +1281,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:5">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1223,16 +1301,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1240,30 +1321,36 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2">
         <v>43173</v>
       </c>
-    </row>
-    <row r="9" ht="28.5" spans="2:5">
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="2:7">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>43173</v>
       </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:5">
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1271,13 +1358,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2">
         <v>43173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:5">
@@ -1288,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -1305,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -1314,7 +1404,7 @@
         <v>43173</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:5">
+    <row r="13" ht="42.75" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1322,13 +1412,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>43173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:5">
@@ -1339,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -1353,10 +1446,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -1373,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -1390,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1399,163 +1492,46 @@
         <v>43174</v>
       </c>
     </row>
-    <row r="18" ht="42.75" spans="1:5">
+    <row r="18" ht="42.75" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
         <v>43174</v>
       </c>
+      <c r="G18" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" ht="28.5" spans="1:5">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2">
         <v>43173</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2">
-        <v>43174</v>
-      </c>
-      <c r="F20" s="2">
-        <v>43174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F40">
-    <sortState ref="A1:F40">
+  <autoFilter ref="A1:F19">
+    <sortState ref="A1:F19">
       <sortCondition ref="B1"/>
     </sortState>
     <extLst/>
@@ -1564,4 +1540,283 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="63.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43174</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:6">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43174</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" ht="42.75" spans="1:5">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:7">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43174</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:7">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43174</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:5">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5" spans="1:7">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.16666666666667" customWidth="1"/>
+    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="4" max="4" width="5.66666666666667" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:6">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43175</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43175</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/issue tracking.xlsx
+++ b/issue tracking.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
     <sheet name="2018-3-15-2" sheetId="2" r:id="rId2"/>
     <sheet name="2018-3-16-1" sheetId="3" r:id="rId3"/>
+    <sheet name="2018-3-18-1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018-3-15-1'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018-3-15-2'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>序号</t>
   </si>
@@ -39,10 +41,19 @@
     <t>完成日期</t>
   </si>
   <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>review result</t>
+  </si>
+  <si>
     <t>需要增加功能教师在第一次登陆系统的时候可以修改密码</t>
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>ok。</t>
   </si>
   <si>
     <t>课程信息页面中，左边的导航栏法律硕士和法学硕士，同右边的课程信息列表做反了。</t>
@@ -119,21 +130,39 @@
     <t>如果更改课程代码，这条记录的班级从原来的课程代码里去掉，数据库新建一条课程代码记录，是这个班级上课。</t>
   </si>
   <si>
+    <t>编辑课程信息的对话框连着打开两次，之间不刷新页面，可选教师列表没有正常更新。“选/必”框没有load出来。
+如果只改课程代码，确实生成一条新的课程记录，但是这个上课班级在原课程中没有被删掉。
+在不刷新页面的前提下，每次点开编辑窗，学期的下拉框内容会不断添加。所有的下拉框内容都变长了。
+数据库里year为空。需要写入当前排课目标学年。</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>课程信息页面中，编辑课程信息时，如果更改除课程代码以外的其他课程信息，允许这个操作，并且同步更新所有其他同课程代码的记录。</t>
   </si>
   <si>
     <t>课程信息页面中，编辑课程信息时，如果更改上课班级相关信息，包括学位、年级、班级，允许这个操作，就是把原来这条记录中的班级换成新的这个班级。</t>
   </si>
   <si>
+    <t>改班级操作成功的，但是“必/选”被擦掉了。</t>
+  </si>
+  <si>
     <t>课程信息页面中，添加课程信息时，如果搜索的课程代码已经存在，load同课程代码的任意一条记录，并且只允许修改班级相关信息以达到增加一个新的班级上这堂课的目的，包括学位、年级、班级。如果修改其他信息，则报错并返回。</t>
   </si>
   <si>
     <t>在这个情况中，其他不允许修改的信息窗会变灰。这样就没有出错状况了。</t>
   </si>
   <si>
+    <t>添加已有的课程代码时，load课程信息不全。选年级时，年级最小是n-3。现在添加同样课程代码，不同班级的时候，因为课程信息 load不全，添加不成功。</t>
+  </si>
+  <si>
     <t>课程信息页面中，添加课程信息时，如果搜索的课程代码之前不存在，允许编辑所有可编辑内容。</t>
   </si>
   <si>
+    <t>数据库里year为空。需要写入当前排课目标学年。</t>
+  </si>
+  <si>
     <t>教师个人申报课程的页面中，应该不需要导入，也没有删除课程的按钮。应该时”申报该课程“和”取消申报“的按钮。”取消申报“要先选中一条本人已经申报的记录才可以成功。</t>
   </si>
   <si>
@@ -152,9 +181,6 @@
     <t>负责不同学位课程的教务员之前设置权限，比方说负责本科的教务员老师不可以更改硕士课程。</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>教师个人申报课程的页面中，期望学时的默认值应该为100%</t>
   </si>
   <si>
@@ -167,15 +193,27 @@
     <t>教师信息管理页面，教务员的管理页面中，统计信息的期望学时总数是和期望难度总数，改成”第一/二学期平均学时“和”第一/二学期平均难度“，显示值为，系数为100%的学时数值和难度数值。</t>
   </si>
   <si>
-    <t>教师信息管理页面，教务员的管理页面中，教师信息列表，第三/四列改名为”%期望学时1/2“，第五/六列改名为”期望学时1/2“，第七八列改名为”期望难度1/2“</t>
+    <t>标题要改下。为什么平均难度的值一样的？</t>
+  </si>
+  <si>
+    <t>教师信息管理页面，教务员的管理页面中，教师信息列表，第三/四列改名为”期望学时1/2（%）“，第五/六列改名为”期望学时1/2“，第七八列改名为”期望难度1/2“</t>
   </si>
   <si>
     <t>改成“已分配学时/难度/1/2”</t>
   </si>
   <si>
+    <t>标题要改下</t>
+  </si>
+  <si>
     <t>教师信息管理页面，教务员的管理页面中，编辑教师信息按钮不work</t>
   </si>
   <si>
+    <t>修改教师期望学时后，在刷新页面之前，教师个人记录条里的难度内容丢失。刷新页面之后，统计信息的第一/二学期平均学时没有更新计算。</t>
+  </si>
+  <si>
+    <t>更新了.但是因为我有不满18的倍数进位</t>
+  </si>
+  <si>
     <t>教师信息管理页面，教务员的管理页面中，删除教师按钮不work。如果来不及，可以先disable掉。这里的导入按钮也可以disable掉。</t>
   </si>
   <si>
@@ -194,10 +232,43 @@
     <t>教师个人申报课程的页面中，没有选中任何课程也可以点申报课程按钮。此处可以改成必须选中才可以点。这样可以避免老师出现申报一门不存在的课程。</t>
   </si>
   <si>
+    <t>ok。正常。</t>
+  </si>
+  <si>
     <t>课程信息管理页面里面，编辑课程信息对话窗，可选教师列表如果比较长的话无法全部显示。</t>
   </si>
   <si>
     <t>OK。正常。</t>
+  </si>
+  <si>
+    <t>课程信息管理页面，左侧导航栏，filter该过之后的提交有问题。</t>
+  </si>
+  <si>
+    <t>添加过新课程以后，因为可选教师列表是空的，所以这个时候切到教师信息管理页面，会报错。</t>
+  </si>
+  <si>
+    <t>现在的修改课程信息对话框中，添加可选教师的时候，搜索教师名字不成功，可能和中文字符的编码差异有关。需要检查确认。</t>
+  </si>
+  <si>
+    <t>老师申报课程的时候，申报状态栏把当下数据要画上去</t>
+  </si>
+  <si>
+    <t>完成申报，数据库需要记录完成申报状态，和简述的理由（没有漏报课程的老师是不需要写理由的）。在教务员教师管理页面中，显示完成申报的状态和理由。导出也要导出这两个内容。</t>
+  </si>
+  <si>
+    <t>排课到第三步之后，在排课结果出来之前刷新页面，它又回到第二部了</t>
+  </si>
+  <si>
+    <t>第三步，排课过程中，跳出的第一个统计数据窗口，最后一行，少了学时56.</t>
+  </si>
+  <si>
+    <t>微调要检查老师名字的合法性，要把学时和难度更新到新的老师名下。可以考虑更换老师的地方用教师名字的添加删除框</t>
+  </si>
+  <si>
+    <t>现在排课排完了，但是教务员教师管理信息页面上，实际分配的学时和难度都为null</t>
+  </si>
+  <si>
+    <t>暂时禁止分配上课时间和排课结果查询按钮</t>
   </si>
 </sst>
 </file>
@@ -205,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -219,52 +290,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,70 +306,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,6 +336,42 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -370,12 +379,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -386,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,69 +654,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +675,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -682,152 +751,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +905,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1156,23 +1228,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.16666666666667" customWidth="1"/>
     <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
     <col min="3" max="3" width="73.1666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.16666666666667" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="64.8333333333333" customWidth="1"/>
+    <col min="7" max="7" width="64.8333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1264,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1200,14 +1279,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>43173</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" t="s">
-        <v>7</v>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1218,10 +1300,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>43173</v>
@@ -1229,8 +1311,8 @@
       <c r="F3" s="2">
         <v>43174</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1241,19 +1323,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>43174</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1261,19 +1343,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>43174</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="42.75" spans="1:7">
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1281,16 +1366,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>43174</v>
       </c>
-      <c r="G6" t="s">
-        <v>7</v>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:7">
@@ -1301,19 +1389,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>43174</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1321,36 +1409,42 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2">
         <v>43173</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" ht="28.5" spans="2:7">
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="2:8">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
         <v>43173</v>
       </c>
-      <c r="G9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:7">
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="99.75" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1358,19 +1452,25 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E10" s="2">
         <v>43173</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" spans="1:5">
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1378,16 +1478,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E11" s="2">
         <v>43173</v>
       </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:5">
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1395,16 +1498,22 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>43173</v>
       </c>
-    </row>
-    <row r="13" ht="42.75" spans="1:7">
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1412,19 +1521,25 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>43173</v>
       </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:5">
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1432,16 +1547,22 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>43173</v>
       </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:5">
+      <c r="H14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1449,16 +1570,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="16" ht="42.75" spans="1:5">
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1466,16 +1590,19 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2">
         <v>43174</v>
       </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:5">
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1483,13 +1610,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>43174</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="42.75" spans="1:7">
@@ -1500,16 +1630,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
         <v>43174</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" ht="28.5" spans="1:5">
@@ -1520,10 +1650,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
         <v>43173</v>
@@ -1531,9 +1661,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F19">
-    <sortState ref="A1:F19">
-      <sortCondition ref="B1"/>
-    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1545,195 +1672,235 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.16666666666667" customWidth="1"/>
-    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
-    <col min="3" max="3" width="63.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="6.66666666666667" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="1" max="1" width="4.83333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="52.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
         <v>19</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>43174</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+    </row>
+    <row r="3" ht="42.75" spans="1:8">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3">
         <v>43174</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" ht="42.75" spans="1:6">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="F3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="42.75" spans="1:9">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
         <v>43174</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="42.75" spans="1:5">
-      <c r="A4">
-        <v>21</v>
-      </c>
-      <c r="B4">
+      <c r="H4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75" spans="1:8">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
         <v>43174</v>
       </c>
-    </row>
-    <row r="5" ht="42.75" spans="1:7">
-      <c r="A5">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" ht="71.25" spans="1:9">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
         <v>43174</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:8">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3">
         <v>43174</v>
       </c>
-    </row>
-    <row r="7" ht="28.5" spans="1:7">
-      <c r="A7">
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="57" spans="1:8">
+      <c r="A8" s="1">
         <v>24</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
         <v>43174</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" ht="57" spans="1:5">
-      <c r="A8">
-        <v>24</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="H8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5" spans="1:8">
+      <c r="A9" s="1">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3">
         <v>43174</v>
       </c>
-    </row>
-    <row r="9" ht="85.5" spans="1:7">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2">
-        <v>43174</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H9">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1745,7 +1912,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1777,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="42.75" spans="1:6">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2">
         <v>26</v>
       </c>
@@ -1785,15 +1952,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>43175</v>
       </c>
       <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" ht="28.5" spans="1:7">
       <c r="A3">
@@ -1803,16 +1973,247 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>43175</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="4.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="66.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="4.83333333333333" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43177</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:7">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43177</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43178</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43177</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="42.75" spans="1:5">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" spans="1:5">
+      <c r="A9">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:5">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43177</v>
       </c>
     </row>
   </sheetData>

--- a/issue tracking.xlsx
+++ b/issue tracking.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
     <sheet name="2018-3-15-2" sheetId="2" r:id="rId2"/>
     <sheet name="2018-3-16-1" sheetId="3" r:id="rId3"/>
     <sheet name="2018-3-18-1" sheetId="4" r:id="rId4"/>
+    <sheet name="2018-3-20" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018-3-15-1'!$A$1:$F$19</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>序号</t>
   </si>
@@ -270,16 +271,31 @@
   <si>
     <t>暂时禁止分配上课时间和排课结果查询按钮</t>
   </si>
+  <si>
+    <t>第一学期的平均学时是第一学期的总学时除以第一学期的期望学时系数总和。第二学期的是第二学期总学时除以第二学期的期望学时总和。</t>
+  </si>
+  <si>
+    <t>教师信息管理，教务员页面上，统计信息中，第一学期平均学时和第二学期平均学时的值一样，并且不随教师修改期望学时而改变。此处需要修正</t>
+  </si>
+  <si>
+    <t>教师信息管理，教师个人，修改完第一学期期望学时和第二学期期望学时，提交之后，页面显示的数值要画一下。</t>
+  </si>
+  <si>
+    <t>分配授课教师第二步，“老师以确认”，是“老师已确认”</t>
+  </si>
+  <si>
+    <t>编辑课程信息是可以添加同一个老师N次到可选教师列表</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -290,9 +306,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,6 +380,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -313,8 +403,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +435,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -351,86 +443,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,13 +471,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,132 +603,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -611,31 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,9 +667,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,46 +743,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,17 +762,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -754,10 +770,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -766,133 +782,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1246,7 @@
   <sheetPr/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1997,7 +2013,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2114,7 +2130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" ht="42.75" spans="1:5">
+    <row r="6" ht="42.75" spans="1:7">
       <c r="A6">
         <v>32</v>
       </c>
@@ -2129,6 +2145,9 @@
       </c>
       <c r="E6" s="2">
         <v>43177</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2220,4 +2239,120 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="133.75" customWidth="1"/>
+    <col min="4" max="4" width="5.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="127.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>